--- a/GATEWAY/A1#111TOPGATEXXXX/topgate/topamb/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TOPGATEXXXX/topgate/topamb/1.0/report-checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348666FD-ABA6-4659-BE71-A4BED949D979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB855FB-09E1-41C2-B567-2EC1EAE8B440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="249">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -468,13 +468,16 @@
 </t>
   </si>
   <si>
-    <t>2023-09-08T08:22:40+00:00</t>
-  </si>
-  <si>
-    <t>0f1716347dadc0d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4deeca8531^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>2023-09-13T145309+00:00</t>
+  </si>
+  <si>
+    <t>ba4280eff69dd916</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.48d6997573^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -486,13 +489,13 @@
 </t>
   </si>
   <si>
-    <t>2023-09-08T08:23:05+00:00</t>
-  </si>
-  <si>
-    <t>eee579d4271e06b1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1d7cbe0d82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-09-13T145550+00:00</t>
+  </si>
+  <si>
+    <t>7063f8a10256e133</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c108a1156b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT4</t>
@@ -504,13 +507,13 @@
 </t>
   </si>
   <si>
-    <t>2023-09-08T08:23:37+00:00</t>
-  </si>
-  <si>
-    <t>4b24768ab9247651</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.75b4336ec6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-09-13T145356+00:00</t>
+  </si>
+  <si>
+    <t>d0e0b4741bf363db</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d7e4eacb07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -1480,21 +1483,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1510,6 +1498,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3977,8 +3980,8 @@
   <dimension ref="A1:T653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13:N16"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -4018,11 +4021,11 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="34"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="44"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4041,11 +4044,11 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="44"/>
@@ -4068,7 +4071,7 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="44"/>
@@ -4092,7 +4095,7 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="44"/>
@@ -4113,7 +4116,7 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="50"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
@@ -4263,19 +4266,19 @@
         <v>54</v>
       </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="35" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="25"/>
@@ -4317,19 +4320,19 @@
         <v>54</v>
       </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="35" t="s">
         <v>56</v>
       </c>
       <c r="Q11" s="25"/>
@@ -4365,22 +4368,22 @@
         <v>54</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="43"/>
+      <c r="Q12" s="38"/>
       <c r="R12" s="26" t="s">
         <v>54</v>
       </c>
@@ -4421,15 +4424,15 @@
         <v>54</v>
       </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39" t="s">
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="38"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
       <c r="S13" s="27"/>
       <c r="T13" s="28" t="s">
         <v>70</v>
@@ -4451,31 +4454,31 @@
       <c r="E14" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="23">
-        <v>45177</v>
+      <c r="F14" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="25"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39" t="s">
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="38"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
       <c r="S14" s="27"/>
       <c r="T14" s="28" t="s">
         <v>70</v>
@@ -4492,36 +4495,36 @@
         <v>48</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="23">
-        <v>45177</v>
+        <v>78</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39" t="s">
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="38"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
       <c r="S15" s="27"/>
       <c r="T15" s="28" t="s">
         <v>70</v>
@@ -4538,36 +4541,36 @@
         <v>48</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="23">
-        <v>45177</v>
+        <v>83</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="38"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
       <c r="S16" s="27"/>
       <c r="T16" s="28" t="s">
         <v>70</v>
@@ -4584,44 +4587,44 @@
         <v>48</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="23">
         <v>45177</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="40" t="s">
+      <c r="N17" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
+      <c r="P17" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
       <c r="S17" s="27"/>
       <c r="T17" s="28" t="s">
         <v>57</v>
@@ -4638,44 +4641,44 @@
         <v>48</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="23">
         <v>45177</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="25"/>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O18" s="40" t="s">
+      <c r="N18" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
+      <c r="P18" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
       <c r="S18" s="27"/>
       <c r="T18" s="28" t="s">
         <v>57</v>
@@ -4692,44 +4695,44 @@
         <v>48</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="23">
         <v>45177</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="25"/>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O19" s="40" t="s">
+      <c r="N19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
+      <c r="P19" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
       <c r="S19" s="27"/>
       <c r="T19" s="28" t="s">
         <v>57</v>
@@ -4746,44 +4749,44 @@
         <v>48</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="23">
         <v>45177</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K20" s="25"/>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O20" s="40" t="s">
+      <c r="N20" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
+      <c r="P20" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
       <c r="S20" s="27"/>
       <c r="T20" s="28" t="s">
         <v>57</v>
@@ -4800,44 +4803,44 @@
         <v>48</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="23">
         <v>45177</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="40" t="s">
+      <c r="N21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="42"/>
+      <c r="P21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
       <c r="S21" s="27"/>
       <c r="T21" s="28" t="s">
         <v>57</v>
@@ -4854,44 +4857,44 @@
         <v>48</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="23">
         <v>45177</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K22" s="25"/>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="40" t="s">
+      <c r="N22" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
+      <c r="P22" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
       <c r="S22" s="27"/>
       <c r="T22" s="28" t="s">
         <v>57</v>
@@ -4908,44 +4911,44 @@
         <v>48</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="23">
         <v>45177</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K23" s="25"/>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O23" s="40" t="s">
+      <c r="N23" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
+      <c r="P23" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
       <c r="S23" s="27"/>
       <c r="T23" s="28" t="s">
         <v>57</v>
@@ -4962,44 +4965,44 @@
         <v>48</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="23">
         <v>45177</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K24" s="25"/>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O24" s="40" t="s">
+      <c r="N24" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
+      <c r="P24" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="37"/>
       <c r="S24" s="27"/>
       <c r="T24" s="28" t="s">
         <v>57</v>
@@ -5016,44 +5019,44 @@
         <v>48</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F25" s="23">
         <v>45177</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K25" s="25"/>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O25" s="40" t="s">
+      <c r="N25" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="42"/>
+      <c r="P25" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="37"/>
       <c r="S25" s="27"/>
       <c r="T25" s="28" t="s">
         <v>57</v>
@@ -5070,44 +5073,44 @@
         <v>48</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="23">
         <v>45177</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="25"/>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O26" s="40" t="s">
+      <c r="N26" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
+      <c r="P26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="37"/>
       <c r="S26" s="27"/>
       <c r="T26" s="28" t="s">
         <v>57</v>
@@ -5124,44 +5127,44 @@
         <v>48</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" s="23">
         <v>45177</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K27" s="25"/>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" s="40" t="s">
+      <c r="N27" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="P27" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="37"/>
       <c r="S27" s="27"/>
       <c r="T27" s="28" t="s">
         <v>57</v>
@@ -5178,44 +5181,44 @@
         <v>48</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="23">
         <v>45177</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K28" s="25"/>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O28" s="40" t="s">
+      <c r="N28" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="P28" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
       <c r="S28" s="27"/>
       <c r="T28" s="28" t="s">
         <v>57</v>
@@ -5232,44 +5235,44 @@
         <v>48</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" s="23">
         <v>45177</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K29" s="25"/>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O29" s="40" t="s">
+      <c r="N29" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="P29" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="37"/>
       <c r="S29" s="27"/>
       <c r="T29" s="28" t="s">
         <v>57</v>
@@ -5286,44 +5289,44 @@
         <v>48</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="23">
         <v>45177</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K30" s="25"/>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O30" s="40" t="s">
+      <c r="N30" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="P30" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
       <c r="S30" s="27"/>
       <c r="T30" s="28" t="s">
         <v>57</v>
@@ -5340,44 +5343,44 @@
         <v>48</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F31" s="23">
         <v>45177</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K31" s="25"/>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O31" s="40" t="s">
+      <c r="N31" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="P31" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="37"/>
       <c r="S31" s="27"/>
       <c r="T31" s="28" t="s">
         <v>57</v>
@@ -5394,44 +5397,44 @@
         <v>48</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" s="23">
         <v>45177</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K32" s="25"/>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="40" t="s">
+      <c r="N32" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P32" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="P32" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
       <c r="S32" s="27"/>
       <c r="T32" s="28" t="s">
         <v>57</v>
@@ -5448,44 +5451,44 @@
         <v>48</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F33" s="23">
         <v>45177</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K33" s="25"/>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O33" s="40" t="s">
+      <c r="N33" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="P33" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="37"/>
       <c r="S33" s="27"/>
       <c r="T33" s="28" t="s">
         <v>57</v>
@@ -5502,44 +5505,44 @@
         <v>48</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F34" s="23">
         <v>45177</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K34" s="25"/>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O34" s="40" t="s">
+      <c r="N34" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="P34" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
       <c r="S34" s="27"/>
       <c r="T34" s="28" t="s">
         <v>57</v>
@@ -5556,44 +5559,44 @@
         <v>48</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" s="23">
         <v>45177</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J35" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K35" s="25"/>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N35" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O35" s="40" t="s">
+      <c r="N35" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O35" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P35" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="P35" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="37"/>
       <c r="S35" s="27"/>
       <c r="T35" s="28" t="s">
         <v>57</v>
@@ -5610,22 +5613,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" s="23">
         <v>45177</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>54</v>
@@ -5633,13 +5636,13 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="39" t="s">
+      <c r="N36" s="34" t="s">
         <v>69</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
       <c r="S36" s="27"/>
       <c r="T36" s="28" t="s">
         <v>70</v>
@@ -10357,94 +10360,94 @@
         <v>28</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10452,125 +10455,125 @@
         <v>48</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" s="30">
         <v>192</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C12" s="30">
         <v>208</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C13" s="30">
         <v>224</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C14" s="30">
         <v>240</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C15" s="30">
         <v>256</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C16" s="30">
         <v>272</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -10578,111 +10581,111 @@
         <v>48</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C17" s="30">
         <v>288</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="30">
         <v>304</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="30">
         <v>193</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="30">
         <v>209</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="30">
         <v>225</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="30">
         <v>241</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="30">
         <v>257</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="30">
         <v>273</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -10690,111 +10693,111 @@
         <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="30">
         <v>289</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" s="30">
         <v>305</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" s="30">
         <v>194</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="30">
         <v>210</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" s="30">
         <v>226</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C30" s="30">
         <v>242</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="30">
         <v>258</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="30">
         <v>274</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
@@ -10802,35 +10805,35 @@
         <v>48</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="30">
         <v>290</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C34" s="30">
         <v>306</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="30">
         <v>195</v>
@@ -10841,10 +10844,10 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="30">
         <v>211</v>
@@ -10855,10 +10858,10 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C37" s="30">
         <v>227</v>
@@ -10869,10 +10872,10 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C38" s="30">
         <v>243</v>
@@ -10883,10 +10886,10 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="30">
         <v>259</v>
@@ -10897,10 +10900,10 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C40" s="30">
         <v>275</v>
@@ -10914,7 +10917,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C41" s="30">
         <v>291</v>
@@ -10925,10 +10928,10 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" s="30">
         <v>307</v>
@@ -10939,10 +10942,10 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C43" s="30">
         <v>196</v>
@@ -10953,10 +10956,10 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C44" s="30">
         <v>212</v>
@@ -10967,10 +10970,10 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C45" s="30">
         <v>228</v>
@@ -10981,10 +10984,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C46" s="30">
         <v>244</v>
@@ -10995,10 +10998,10 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C47" s="30">
         <v>260</v>
@@ -11009,10 +11012,10 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C48" s="30">
         <v>276</v>
@@ -11026,7 +11029,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C49" s="30">
         <v>292</v>
@@ -11037,10 +11040,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" s="30">
         <v>308</v>
@@ -12028,7 +12031,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>54</v>
@@ -12036,7 +12039,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>69</v>
